--- a/data/trans_bre/P7C_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P7C_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-11,35</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-6,87</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-5,32</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-18,17%</t>
+          <t>-23,9</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-63,39%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-52,68%</t>
+          <t>-6,41%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-46,31%</t>
+          <t>-5,23%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-8,42%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-53,32%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,8; 5,99</t>
+          <t>-14,55; 15,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-36,77; 0,33</t>
+          <t>-14,17; 15,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-17,14; 1,77</t>
+          <t>-16,47; 13,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,43; 2,01</t>
+          <t>-16,09; 13,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-77,35; 142,21</t>
+          <t>-63,22; 8,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-97,1; 13,74</t>
+          <t>-68,95; 364,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-86,96; 39,25</t>
+          <t>-76,61; 470,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-86,27; 49,36</t>
+          <t>-73,29; 303,71</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-78,06; 357,14</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-97,64; 72,84</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,95</t>
+          <t>6,28</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,97</t>
+          <t>7,48</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,04</t>
+          <t>7,58</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,7</t>
+          <t>5,68</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>41,56%</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>56,43%</t>
+          <t>42,2%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>63,21%</t>
+          <t>51,18%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>39,21%</t>
+          <t>56,54%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>37,98%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>7,73%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 13,26</t>
+          <t>-11,53; 15,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 15,09</t>
+          <t>-9,89; 17,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 14,71</t>
+          <t>-5,74; 15,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 13,28</t>
+          <t>-8,54; 14,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-20,69; 132,59</t>
+          <t>-12,74; 10,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-13,43; 156,14</t>
+          <t>-46,52; 173,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 167,05</t>
+          <t>-44,05; 216,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-25,04; 130,02</t>
+          <t>-33,33; 189,02</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-39,15; 147,85</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-42,22; 71,63</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,56</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,17</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>4,88</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>15,76%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>21,03%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>25,54%</t>
+          <t>9,28%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>9,51%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>18,99%</t>
         </is>
       </c>
     </row>
@@ -868,49 +934,59 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 9,11</t>
+          <t>-9,8; 9,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 10,2</t>
+          <t>-9,88; 10,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 11,08</t>
+          <t>-8,37; 10,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 11,55</t>
+          <t>-8,88; 10,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-26,43; 67,35</t>
+          <t>-7,11; 14,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-21,79; 74,53</t>
+          <t>-37,49; 64,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-18,76; 82,94</t>
+          <t>-37,06; 67,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-15,42; 88,87</t>
+          <t>-32,42; 72,09</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-33,65; 69,71</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-23,26; 78,24</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,12</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,84</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,88</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,12%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>27,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19,72%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,52 +1054,190 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 7,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 7,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 8,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 7,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-15,71; 58,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,48; 62,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 74,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-15,45; 65,3</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3,5</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4,12</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4,38</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3,4</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-1,41</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>20,89%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>24,94%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>27,76%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>21,02%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-5,32%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-4,94; 9,14</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-4,7; 10,19</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-3,33; 10,23</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-4,44; 9,82</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-14,87; 8,15</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-25,23; 67,9</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-22,94; 78,15</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-16,88; 85,41</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-21,04; 80,64</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-42,05; 39,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P7C_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P7C_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,28</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,75</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,66</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-0,97</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-23,9</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>2,26%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-6,41%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-5,23%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-8,42%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-53,32%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.279852241557467</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-3.618889105146283</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-4.22806592486205</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-3.567822081924922</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-27.98780653500506</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.0225985253656767</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.2566869100420214</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.2761388743916423</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.2546680015353913</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.6076195636719446</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-14,55; 15,02</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-14,17; 15,53</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-16,47; 13,16</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-16,09; 13,19</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-63,22; 8,43</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-68,95; 364,66</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-76,61; 470,85</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-73,29; 303,71</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-78,06; 357,14</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-97,64; 72,84</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-14.55138541183427</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-20.31639138275202</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-21.7524605325061</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-21.43270111069102</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-66.12651258772499</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.6895096175053267</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.8444396722123252</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.8115361938407365</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.8349814467963221</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.9871500693849237</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15.02328498611728</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>10.64456173312147</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>9.581841448635398</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>10.87726124519548</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>3.97615686788766</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>3.646566250931316</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>2.366740286031607</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.752208172420184</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>2.693585200312318</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.4266481392331545</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>6,28</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>7,48</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>7,58</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>5,68</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>1,61</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>42,2%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>51,18%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>56,54%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>37,98%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>7,73%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-11,53; 15,5</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-9,89; 17,34</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-5,74; 15,54</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-8,54; 14,01</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-12,74; 10,62</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-46,52; 173,36</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-44,05; 216,84</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-33,33; 189,02</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-39,15; 147,85</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-42,22; 71,63</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>6.276875332398244</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>8.808305637463592</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>9.33077919038319</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>6.959880000323851</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>2.51550598501783</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.4219793843247928</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.6339191828343991</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.7534617387949434</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.4776202937286642</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.1222883767398525</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,02</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,46</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,87</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,89</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>4,88</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>4,94%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>7,01%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>9,28%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>9,51%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>18,99%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-11.52841974997457</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-7.816373479195571</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-2.147589846825078</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-7.173052832567066</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-11.56636723760511</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.4652358732691574</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.3829321270762967</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.1952513362677723</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.3322026360394431</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.4046101408550518</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-9,8; 9,7</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-9,88; 10,17</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-8,37; 10,89</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-8,88; 10,47</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-7,11; 14,89</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-37,49; 64,26</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-37,06; 67,99</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-32,42; 72,09</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-33,65; 69,71</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-23,26; 78,24</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>15.50012866384866</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>18.58386894489652</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>17.4772033683087</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>15.04894134255986</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>11.76914293397066</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.733627285091388</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>2.357570904503584</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>2.180813318536547</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>1.663974768538108</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.8057966742740124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,252 +879,247 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>1.022452391145534</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2.676109799426243</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>2.143821307768212</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>2.262720462280768</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>4.674236348322042</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.04942605781734213</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.1397903725939261</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.1082175196859906</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.1149309279121984</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.1799861065001257</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-9.8034943713066</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-7.860277675477358</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-7.759596883211891</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-8.16980697685039</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-6.911265892065124</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.3748851225455548</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.3289097582592973</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.3109869499139141</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.3187316750025022</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.2220225881651037</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>9.702632648456385</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>11.51024146186819</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>11.25732752970511</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>10.76783753329273</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>15.07024473641459</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.6426066172861988</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.8848273039380598</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.7593431236402002</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.7164585879328771</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.7758569311786846</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>3,5</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>4,12</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>4,38</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>3,4</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-1,41</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>20,89%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>24,94%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>27,76%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>21,02%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-5,32%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-4,94; 9,14</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-4,7; 10,19</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-3,33; 10,23</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-4,44; 9,82</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-14,87; 8,15</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-25,23; 67,9</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-22,94; 78,15</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-16,88; 85,41</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-21,04; 80,64</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-42,05; 39,87</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>3.496555155876893</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>4.736087856170842</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>4.795696395455251</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>3.692402270924558</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-1.699027564288408</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.2089483759856916</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.2968835856920587</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.3094851547090616</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.2269298625133567</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.0640441555155149</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-4.935037642205891</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-3.882288925120438</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-2.401294681998422</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-3.817388239118092</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-15.37744491077141</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.2522786732063705</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.1958135286225709</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.1179729194058917</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.1895527103920762</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.4286644471364292</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>9.137829738659514</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>10.80498822107747</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>10.588265583149</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>10.47611259848948</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>7.568647654054677</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.6789657558096773</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.8437895625829397</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.877914279745766</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.8354108153420917</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.3780893638588472</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
